--- a/proyecto_grupal/Tablas de equipos.xlsx
+++ b/proyecto_grupal/Tablas de equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Radio_Mobile\proyecto_grupal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68EA2AC-8577-41AC-88F4-211944B17327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC150D08-280A-4580-9672-EF6F568F8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,11 +143,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,151 +441,159 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="12" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="F12:I12"/>
@@ -594,14 +602,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
